--- a/LearningApi/test/Normalizers/precalculated_samples.xlsx
+++ b/LearningApi/test/Normalizers/precalculated_samples.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sc\git\github\LearningAPI\LearningApi\LearningApi\test\scaling features\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sc\git\github\LearningApi\LearningApi\test\Normalizers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="6850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="6850"/>
   </bookViews>
   <sheets>
     <sheet name="numeric" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="29">
   <si>
     <t>col1</t>
   </si>
@@ -96,7 +96,22 @@
     <t>class3</t>
   </si>
   <si>
-    <t>normalized</t>
+    <t>minmax_normalized</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>StDev</t>
+  </si>
+  <si>
+    <t>gauss1</t>
+  </si>
+  <si>
+    <t>gauss2</t>
+  </si>
+  <si>
+    <t>gauss3</t>
   </si>
 </sst>
 </file>
@@ -461,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AM27"/>
+  <dimension ref="F3:AM28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,11 +506,20 @@
       <c r="Q3" t="s">
         <v>7</v>
       </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F4">
         <f ca="1">-5 + RAND()*(10)</f>
-        <v>-3.92096899065666</v>
+        <v>-0.3762488154021586</v>
       </c>
       <c r="K4" s="1">
         <v>4.1220384075237266</v>
@@ -519,9 +543,18 @@
         <v>2.5058590532657618E-2</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="S4" s="1">
+        <f>(K4-K$27)/(K$28)</f>
+        <v>0.52371142760855771</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:U4" si="1">(L4-L$27)/(L$28)</f>
+        <v>4.9965857426462909E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.3387868445399091</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -543,8 +576,8 @@
     </row>
     <row r="5" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F5">
-        <f t="shared" ref="F5:F23" ca="1" si="1">-5 + RAND()*(10)</f>
-        <v>-2.8441083137178569</v>
+        <f t="shared" ref="F5:F23" ca="1" si="2">-5 + RAND()*(10)</f>
+        <v>-1.3029087348335899</v>
       </c>
       <c r="K5" s="1">
         <v>7.9603529542250904</v>
@@ -556,21 +589,30 @@
         <v>9.7381739411163686</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" ref="O5:O23" si="2">(K5-K$25)/(K$26-K$25)</f>
+        <f t="shared" ref="O5:O23" si="3">(K5-K$25)/(K$26-K$25)</f>
         <v>0.90268838607101887</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" ref="P5:P23" si="3">(L5-L$25)/(L$26-L$25)</f>
+        <f t="shared" ref="P5:P23" si="4">(L5-L$25)/(L$26-L$25)</f>
         <v>0.17595799741229842</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q23" si="4">(M5-M$25)/(M$26-M$25)</f>
+        <f t="shared" ref="Q5:Q23" si="5">(M5-M$25)/(M$26-M$25)</f>
         <v>0.98947680288747442</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5:S23" si="6">(K5-K$27)/(K$28)</f>
+        <v>1.1528241081231665</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5:T23" si="7">(L5-L$27)/(L$28)</f>
+        <v>-0.80966319852709989</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5:U23" si="8">(M5-M$27)/(M$28)</f>
+        <v>1.4945929399916429</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -592,8 +634,8 @@
     </row>
     <row r="6" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52307146189451625</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5958329228207502</v>
       </c>
       <c r="K6" s="1">
         <v>6.7975912845388962</v>
@@ -605,21 +647,30 @@
         <v>5.0934257216687904</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84380253935356186</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74925916681090243</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="S6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.96224355462356348</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.341530859657009</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.78885368162008063</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -641,8 +692,8 @@
     </row>
     <row r="7" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.5067944006698815</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.4382508182692622</v>
       </c>
       <c r="K7" s="1">
         <v>-7.9071933158837293</v>
@@ -654,22 +705,34 @@
         <v>-6.6783013002632741</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.910677360184221E-2</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15149735438225639</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14044760068395598</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.4479201627591283</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.88360030391275579</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.99978361489174183</v>
       </c>
     </row>
     <row r="8" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.99496555157907451</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6914229817946742</v>
       </c>
       <c r="K8" s="1">
         <v>-7.0810893840211842</v>
@@ -681,22 +744,34 @@
         <v>-0.12643882470115742</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14094323138383538</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.47929759672647926</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.3125189462526947</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="7"/>
+        <v>1.681165857467225</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="8"/>
+        <v>-4.2707590828169615E-3</v>
       </c>
     </row>
     <row r="9" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6077060064975424</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1560849586747324</v>
       </c>
       <c r="K9" s="1">
         <v>-4.0402294096139642</v>
@@ -708,22 +783,34 @@
         <v>9.4502072775852</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29494178414875349</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15907903333636009</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97458370902876312</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.81411175572867311</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.86068318782789666</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4508382798993482</v>
       </c>
     </row>
     <row r="10" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.0607401695169116</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.9401135192036598</v>
       </c>
       <c r="K10" s="1">
         <v>-9.8641585965804062</v>
@@ -735,22 +822,34 @@
         <v>-3.0204070461533572</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13423249359303327</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32962700702104841</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.7686733627466484</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.93578674194194733</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.44399039292799791</v>
       </c>
     </row>
     <row r="11" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.87939462423401338</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.9835119770458376</v>
       </c>
       <c r="K11" s="1">
         <v>8.8308533996826597</v>
@@ -762,22 +861,34 @@
         <v>0.30374419231726613</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94677322059478375</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92788688661593188</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50154585272360275</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2955020627221754</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4631897863795946</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="8"/>
+        <v>6.1092750207839858E-2</v>
       </c>
     </row>
     <row r="12" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.827111027845485</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8347799828096214</v>
       </c>
       <c r="K12" s="1">
         <v>-1.3059002892304896</v>
@@ -789,22 +900,34 @@
         <v>-2.24123894575742</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4334166665392562</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84938084868753849</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36992411470919045</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.36594600448456616</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2258898432590095</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.32560087183020869</v>
       </c>
     </row>
     <row r="13" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.93852897717622064</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3948702742256494</v>
       </c>
       <c r="K13" s="1">
         <v>1.8402372657071311</v>
@@ -816,22 +939,34 @@
         <v>9.9416461001535126</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59274680154627812</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38423010243001277</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.14971653603219981</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.18011979042150117</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5255092101173062</v>
       </c>
     </row>
     <row r="14" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.23528061343985218</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.84837090253827618</v>
       </c>
       <c r="K14" s="1">
         <v>-5.7266798627901139</v>
@@ -843,22 +978,34 @@
         <v>-8.9425478501411213</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2095347179619933</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22981263315114647</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3345030639614461E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.0905266644715006</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.64687696787736249</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.3438211397225746</v>
       </c>
     </row>
     <row r="15" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F15">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.0915876763496826</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.8727251505031379</v>
       </c>
       <c r="K15" s="1">
         <v>9.8818709589645302</v>
@@ -870,22 +1017,34 @@
         <v>5.5934213380997235</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97623589397880872</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77511799905605949</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4677673802053348</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6093341722115779</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="8"/>
+        <v>0.86482476096762095</v>
       </c>
     </row>
     <row r="16" spans="6:39" x14ac:dyDescent="0.35">
       <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4417652757317487</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.0858609689156307</v>
       </c>
       <c r="K16" s="1">
         <v>7.6187393951895821</v>
@@ -897,22 +1056,34 @@
         <v>6.0379505475957238</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88538801902383302</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34722278823788433</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.79810821312730074</v>
       </c>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="S16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0968324953436304</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.29198167753963283</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.93236808082307632</v>
+      </c>
+    </row>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.23571697791956137</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1879078530980616</v>
       </c>
       <c r="K17" s="1">
         <v>-4.8319390345963438</v>
@@ -924,22 +1095,34 @@
         <v>-3.8156831236384425</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25484716042932037</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0082192664726877E-2</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28849682507451502</v>
       </c>
-    </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="S17" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.94387562950757542</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.1599206131317132</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.56482741629451361</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.1219023086361233</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.0536265424468398</v>
       </c>
       <c r="K18" s="1">
         <v>-2.2049410920062691</v>
@@ -951,22 +1134,34 @@
         <v>-3.3739232906238499</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38788646006170546</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56457964443408803</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3113438122063531</v>
       </c>
-    </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="S18" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.51330181976352751</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="7"/>
+        <v>0.36502217812907639</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.49770488516899575</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F19">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2828730255147729</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.48729171385773817</v>
       </c>
       <c r="K19" s="1">
         <v>5.1604236109227575</v>
@@ -978,22 +1173,34 @@
         <v>-0.74961820814552382</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76089130552749884</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6852630703937669E-2</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.447067931894299</v>
       </c>
-    </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="S19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.69390625942047435</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2301365338108248</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="8"/>
+        <v>-9.8958810000845512E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F20">
         <f ca="1">-5 + RAND()*(10)</f>
-        <v>4.8548660216790012</v>
+        <v>-3.2847660183641656</v>
       </c>
       <c r="K20" s="1">
         <v>1.3600885817292365</v>
@@ -1005,22 +1212,34 @@
         <v>7.5031764292066221</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56843058736118068</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80946285209038005</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.87388693803752704</v>
       </c>
-    </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="S20" s="1">
+        <f t="shared" si="6"/>
+        <v>7.1018549729203587E-2</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1052298459906025</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1549996160923617</v>
+      </c>
+    </row>
+    <row r="21" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.8457845833692232</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.2233001075710064</v>
       </c>
       <c r="K21" s="1">
         <v>2.7761160929760109E-2</v>
@@ -1032,22 +1251,34 @@
         <v>-9.3939376451091086</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50095740663633259</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62136081762806328</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.14735440142525738</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="7"/>
+        <v>0.53665444393696804</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.4124068808836072</v>
+      </c>
+    </row>
+    <row r="22" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.91551157597311583</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.4614116809808451</v>
       </c>
       <c r="K22" s="1">
         <v>1.4859074598319424</v>
@@ -1059,22 +1290,34 @@
         <v>-0.8584525853705145</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57480244443496775</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48569554752729843</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44143922274029401</v>
       </c>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="S22" s="1">
+        <f t="shared" si="6"/>
+        <v>9.1640687571074589E-2</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12657947737561351</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.11549548519596105</v>
+      </c>
+    </row>
+    <row r="23" spans="6:21" x14ac:dyDescent="0.35">
       <c r="F23">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2483240540339056</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.3325049864054463</v>
       </c>
       <c r="K23" s="1">
         <v>6.4121332567504332</v>
@@ -1086,24 +1329,36 @@
         <v>-7.5184070765118598</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82428175282256932</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50246498880429979</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6998911090893203E-2</v>
       </c>
-    </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="S23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.89906568576019086</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17726841247161304</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.1274322191801049</v>
+      </c>
+    </row>
+    <row r="24" spans="6:21" x14ac:dyDescent="0.35">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:21" x14ac:dyDescent="0.35">
       <c r="J25" t="s">
         <v>3</v>
       </c>
@@ -1112,15 +1367,15 @@
         <v>-9.8641585965804062</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ref="L25:M25" si="5">MIN(L4:L23)</f>
+        <f t="shared" ref="L25:M25" si="9">MIN(L4:L23)</f>
         <v>-9.6096250260731146</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-9.3939376451091086</v>
       </c>
     </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:21" x14ac:dyDescent="0.35">
       <c r="J26" t="s">
         <v>4</v>
       </c>
@@ -1129,18 +1384,47 @@
         <v>9.8818709589645302</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" ref="L26:M26" si="6">MAX(L4:L23)</f>
+        <f t="shared" ref="L26:M26" si="10">MAX(L4:L23)</f>
         <v>9.8940873199055233</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.9416461001535126</v>
       </c>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.35">
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+    <row r="27" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="1">
+        <f>AVERAGE(K4:K23)</f>
+        <v>0.92679333756366233</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ref="L27:M27" si="11">AVERAGE(L4:L23)</f>
+        <v>-0.95350288130937488</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.8331275899954204E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="6:21" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <f>_xlfn.STDEV.S(K4:K23)</f>
+        <v>6.1011559066996623</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:M28" si="12">_xlfn.STDEV.S(L4:L23)</f>
+        <v>6.4524211891606154</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="12"/>
+        <v>6.581394140046803</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1152,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
